--- a/biology/Botanique/Acioa/Acioa.xlsx
+++ b/biology/Botanique/Acioa/Acioa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acioa est un genre de plantes à fleurs de la famille des Chrysobalanacées. Ce sont des arbres d'Amérique du Sud et d'Afrique.
 </t>
@@ -511,20 +523,57 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Acioa a été décrit en 1775 par le pharmacien, botaniste et explorateur français Jean Baptiste Christian Fusée-Aublet (1723-1778). Ce nom générique vient de acioua, nom vernaculaire utilisé par les Galibis, une ethnie amérindienne d'Amérique du Sud, dispersée sur la côte caraïbe[2]. 
-En classification phylogénétique APG IV (2016)[3], comme auparavant en classification phylogénétique APG III (2009)[4] et en classification classique de Cronquist (1981)[5], ce genre est assigné à la famille des Chrysobalanaceae. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acioa a été décrit en 1775 par le pharmacien, botaniste et explorateur français Jean Baptiste Christian Fusée-Aublet (1723-1778). Ce nom générique vient de acioua, nom vernaculaire utilisé par les Galibis, une ethnie amérindienne d'Amérique du Sud, dispersée sur la côte caraïbe. 
+En classification phylogénétique APG IV (2016), comme auparavant en classification phylogénétique APG III (2009) et en classification classique de Cronquist (1981), ce genre est assigné à la famille des Chrysobalanaceae. 
 En 1979, Acioa cinerea Engl. ex De Wild. a été déplacé dans le genre Dactyladenia, sous le nom de Dactyladenia cinerea (Engl. ex De Wild.) Prance &amp; F. White. 
-Liste d'espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (21 mars 2019)[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acioa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acioa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (21 mars 2019) :
 Acioa dolichopoda (Prance) Sothers &amp; Prance (2014)
 Acioa edulis Prance (1972)
 Acioa guianensis Aubl. (1775)
 Acioa longipendula (Pilg.) Sothers &amp; Prance (2014)
 Acioa schultesii Maguire (1951)
 Acioa somnolens Maguire (1951)
-Selon Tropicos                                           (21 mars 2019)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Acioa barteri (Hook. f. ex Oliv.) Engl.
 Acioa bellayana Baill.
 Acioa brazzae De Wild.
